--- a/exp2/mergeSort.xlsx
+++ b/exp2/mergeSort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephen03/Dev/repos/stepDAA/exp2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4513F6-9AFE-CD4F-9F43-4E83724D3B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0CD774-5BD6-974F-887E-47BC66B147CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -702,6 +702,101 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="950"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>453722486</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>-</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>2041136569</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-C571-A74D-94F8-EB5772B0FEBA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>mergeSort!$A$2:$A$1001</c:f>
@@ -7958,7 +8053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="B1" activeCellId="1" sqref="A1:A1048576 B1:B1048576"/>
     </sheetView>
   </sheetViews>
